--- a/biology/Botanique/Ricinine/Ricinine.xlsx
+++ b/biology/Botanique/Ricinine/Ricinine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La ricinine est un alcaloïde toxique présent dans le ricin commun, une plante de la famille des Euphorbiaceae[5]. Elle peut servir de biomarqueur dans la détection de l'empoisonnement à la ricine, une protéine très toxique également trouvée chez le ricin[6],[7]. La ricinine a été isolée pour la première fois à partir des graines de ricin par Tuson en 1864[8],[9]. La ricinine est présente dans toutes les parties de la plante, les graines de ricin contiennent environ 0,2 % de l'alcaloïde[10].
-La ricine possède des effets insecticides[11].
-Elle sublime entre 170 et 180 °C à 20 mmHg. Elle ne forme pas de sels et est précipitée dans des solutions d'iode ou de chlorure mercurique, mais pas dans le réactif de Mayer[12].
-La ricinine peut être hydrolysée en méthanol et en acide ricininique par les alcalis[12].
+La ricinine est un alcaloïde toxique présent dans le ricin commun, une plante de la famille des Euphorbiaceae. Elle peut servir de biomarqueur dans la détection de l'empoisonnement à la ricine, une protéine très toxique également trouvée chez le ricin,. La ricinine a été isolée pour la première fois à partir des graines de ricin par Tuson en 1864,. La ricinine est présente dans toutes les parties de la plante, les graines de ricin contiennent environ 0,2 % de l'alcaloïde.
+La ricine possède des effets insecticides.
+Elle sublime entre 170 et 180 °C à 20 mmHg. Elle ne forme pas de sels et est précipitée dans des solutions d'iode ou de chlorure mercurique, mais pas dans le réactif de Mayer.
+La ricinine peut être hydrolysée en méthanol et en acide ricininique par les alcalis.
 </t>
         </is>
       </c>
